--- a/Data-Analysis/Result_DA/throughput_analysis.xlsx
+++ b/Data-Analysis/Result_DA/throughput_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5432c06226f2998e/Universita/LM-Computer Engineering/PECSN/PECSN-Project/Factorial-Analysis/Result_DA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5432c06226f2998e/Universita/LM-Computer Engineering/PECSN/PECSN-Project/Data-Analysis/Result_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_584D14B48770D7161B1B3D11595ED87656CD3E87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16258874-5640-47D9-8004-76675B6571D4}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_584D14B48770D7161B1B3D11595ED87656CD3E87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DCDAFC7-8AC8-42A1-BE6E-6AEDC6196E21}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11588" yWindow="6308" windowWidth="12434" windowHeight="6765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -410,10 +410,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -545,11 +545,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1029,41 +1033,28 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -1917,7 +1908,7 @@
   <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
